--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/122.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/122.xlsx
@@ -479,13 +479,13 @@
         <v>-0.001233967476073818</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.329193244873083</v>
+        <v>-1.444423160303779</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1223909472526184</v>
+        <v>0.1369885080655235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09982298391144261</v>
+        <v>0.1259125832478901</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.004791084841497972</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.34557790454926</v>
+        <v>-1.504750887372036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04217152499382173</v>
+        <v>0.0752328539643583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1302985677129799</v>
+        <v>0.1765572713772402</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.0007082011332492271</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.377136844034252</v>
+        <v>-1.599321122316374</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.006286011095347079</v>
+        <v>0.02667019441264407</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07927280703190268</v>
+        <v>0.1032570170212599</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01811533582958872</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.461459001428502</v>
+        <v>-1.709427728996072</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03567531911724828</v>
+        <v>-0.0278742821675231</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1187422870734375</v>
+        <v>0.142130797441704</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.04936206890540303</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.521926893113486</v>
+        <v>-1.767463180561601</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01079609964816405</v>
+        <v>-0.03165726677106754</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1217120248903458</v>
+        <v>0.1678480845149698</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08624642276922073</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.304511131896271</v>
+        <v>-1.532360396771119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1444960753489761</v>
+        <v>0.1012728116657149</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05701875403027228</v>
+        <v>0.1011311870008968</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1200484905319339</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9838743507960845</v>
+        <v>-1.210424172870024</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1963818043555985</v>
+        <v>0.0691064921749054</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02125049589919098</v>
+        <v>0.07454663136163121</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.134709573842502</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5900730998123721</v>
+        <v>-0.7871912724697737</v>
       </c>
       <c r="F9" t="n">
-        <v>0.289684717557028</v>
+        <v>0.1652637993940614</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04829889491124489</v>
+        <v>0.008632760297558006</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.110024459695621</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1600918571359422</v>
+        <v>-0.3357692235783495</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2720706973883055</v>
+        <v>0.121389354262255</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02595139883179634</v>
+        <v>0.04250003581427619</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02130084360096876</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5262227286208736</v>
+        <v>0.3468952419511944</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08571599925708276</v>
+        <v>-0.1154757075739541</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09397941953150535</v>
+        <v>-0.02582291459979638</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1431513460864443</v>
       </c>
       <c r="E12" t="n">
-        <v>1.341531103161382</v>
+        <v>1.226210664749049</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2703517688651852</v>
+        <v>-0.4857701842940365</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03510197213764181</v>
+        <v>0.1244671356378905</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3817737417140326</v>
       </c>
       <c r="E13" t="n">
-        <v>1.975400761492757</v>
+        <v>1.836573548816794</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7157525794297021</v>
+        <v>-0.8996310359987436</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1658098573800613</v>
+        <v>0.2600720221772178</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6716934129733816</v>
       </c>
       <c r="E14" t="n">
-        <v>2.682398388505386</v>
+        <v>2.5953517813735</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.389228962323158</v>
+        <v>-1.598042120188738</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2210843580056828</v>
+        <v>0.3029696951362063</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9840786356705664</v>
       </c>
       <c r="E15" t="n">
-        <v>3.370250404901928</v>
+        <v>3.325207921297395</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.952716272408233</v>
+        <v>-2.102226656965375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4135435172049947</v>
+        <v>0.5191911370150573</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.292657899867164</v>
       </c>
       <c r="E16" t="n">
-        <v>3.993222264282761</v>
+        <v>4.009142628666029</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.61119431128783</v>
+        <v>-2.731544615373342</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6645491448016546</v>
+        <v>0.782767778674441</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.586649302637806</v>
       </c>
       <c r="E17" t="n">
-        <v>4.5908506089016</v>
+        <v>4.675578659665123</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.183030176356721</v>
+        <v>-3.224601395625119</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8593341606097841</v>
+        <v>0.9816058879829331</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.858534803825485</v>
       </c>
       <c r="E18" t="n">
-        <v>5.153921075256722</v>
+        <v>5.2358297731567</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.826860282764276</v>
+        <v>-3.816845082884687</v>
       </c>
       <c r="G18" t="n">
-        <v>1.142897400585617</v>
+        <v>1.254269868960133</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.102207254016073</v>
       </c>
       <c r="E19" t="n">
-        <v>5.655462194964769</v>
+        <v>5.748073045371108</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.388407188936534</v>
+        <v>-4.270203885568702</v>
       </c>
       <c r="G19" t="n">
-        <v>1.377075973934554</v>
+        <v>1.477537502925709</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.308980775223001</v>
       </c>
       <c r="E20" t="n">
-        <v>5.978192685027318</v>
+        <v>6.049257605756118</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.851305945846546</v>
+        <v>-4.676283410972911</v>
       </c>
       <c r="G20" t="n">
-        <v>1.595773657375586</v>
+        <v>1.693573518697015</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.472538468178951</v>
       </c>
       <c r="E21" t="n">
-        <v>6.386362269273664</v>
+        <v>6.459607041802189</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.207894951137269</v>
+        <v>-5.014263373320957</v>
       </c>
       <c r="G21" t="n">
-        <v>1.797566904020078</v>
+        <v>1.899633025863141</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.591298649126754</v>
       </c>
       <c r="E22" t="n">
-        <v>6.735113736412388</v>
+        <v>6.795631269732463</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.375817272144815</v>
+        <v>-5.168762742204733</v>
       </c>
       <c r="G22" t="n">
-        <v>1.875564133084511</v>
+        <v>1.970998716498668</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.666678566515978</v>
       </c>
       <c r="E23" t="n">
-        <v>6.815477703432185</v>
+        <v>6.843922360339268</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.633442027761609</v>
+        <v>-5.41621169265194</v>
       </c>
       <c r="G23" t="n">
-        <v>2.013541597771565</v>
+        <v>2.083263274256728</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.703040013537129</v>
       </c>
       <c r="E24" t="n">
-        <v>7.040752903522761</v>
+        <v>7.053002707005485</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.588969692936575</v>
+        <v>-5.399816812639126</v>
       </c>
       <c r="G24" t="n">
-        <v>2.086054886206546</v>
+        <v>2.161219621974616</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.702840050938661</v>
       </c>
       <c r="E25" t="n">
-        <v>7.042319535124306</v>
+        <v>6.992514374647228</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.596356806252528</v>
+        <v>-5.469656753019652</v>
       </c>
       <c r="G25" t="n">
-        <v>2.063225574257097</v>
+        <v>2.1210726796189</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.671810287679657</v>
       </c>
       <c r="E26" t="n">
-        <v>7.009443632261315</v>
+        <v>6.949571440197421</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.469964823166834</v>
+        <v>-5.340531559907778</v>
       </c>
       <c r="G26" t="n">
-        <v>1.984431158935027</v>
+        <v>2.032528063145742</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.615086497395705</v>
       </c>
       <c r="E27" t="n">
-        <v>6.888506388843256</v>
+        <v>6.800940004591006</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.403579356569398</v>
+        <v>-5.260199713945982</v>
       </c>
       <c r="G27" t="n">
-        <v>1.97349393868603</v>
+        <v>2.032152830786378</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.539427718812182</v>
       </c>
       <c r="E28" t="n">
-        <v>6.836230826996361</v>
+        <v>6.791040878534646</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.230910419218308</v>
+        <v>-5.095348604097662</v>
       </c>
       <c r="G28" t="n">
-        <v>1.902418797620595</v>
+        <v>1.950285014232946</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.449939844407076</v>
       </c>
       <c r="E29" t="n">
-        <v>6.64809487019423</v>
+        <v>6.578672503567703</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.133901903962152</v>
+        <v>-5.015235035325457</v>
       </c>
       <c r="G29" t="n">
-        <v>1.862937637194333</v>
+        <v>1.896653067709597</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.3505705548617</v>
       </c>
       <c r="E30" t="n">
-        <v>6.571702233981704</v>
+        <v>6.519214965161628</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.114893537866612</v>
+        <v>-5.023198137613273</v>
       </c>
       <c r="G30" t="n">
-        <v>1.844057755330792</v>
+        <v>1.900887207173232</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.244028748176564</v>
       </c>
       <c r="E31" t="n">
-        <v>6.355660378018036</v>
+        <v>6.273066917563422</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.955732235428563</v>
+        <v>-4.899905106600533</v>
       </c>
       <c r="G31" t="n">
-        <v>1.7154976008301</v>
+        <v>1.75936182562527</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.130895664430798</v>
       </c>
       <c r="E32" t="n">
-        <v>6.081069133560836</v>
+        <v>5.99742735857695</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.747066542420165</v>
+        <v>-4.697275982423997</v>
       </c>
       <c r="G32" t="n">
-        <v>1.597521334940404</v>
+        <v>1.643655934516937</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.013780352924905</v>
       </c>
       <c r="E33" t="n">
-        <v>5.84183003352881</v>
+        <v>5.739835454042201</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.564772968053805</v>
+        <v>-4.562702619860897</v>
       </c>
       <c r="G33" t="n">
-        <v>1.57204787589832</v>
+        <v>1.628506475525668</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.892523023074139</v>
       </c>
       <c r="E34" t="n">
-        <v>5.482704924704179</v>
+        <v>5.386603099312477</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.440208235153884</v>
+        <v>-4.441259469779338</v>
       </c>
       <c r="G34" t="n">
-        <v>1.489460255636069</v>
+        <v>1.538043355861056</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.768212229218247</v>
       </c>
       <c r="E35" t="n">
-        <v>5.205717741329799</v>
+        <v>5.078956366077105</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.336128706993457</v>
+        <v>-4.378509522928264</v>
       </c>
       <c r="G35" t="n">
-        <v>1.478879287121254</v>
+        <v>1.555452969297052</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.637819760792172</v>
       </c>
       <c r="E36" t="n">
-        <v>4.884761209697703</v>
+        <v>4.76516575047519</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.224670825805624</v>
+        <v>-4.250084422875981</v>
       </c>
       <c r="G36" t="n">
-        <v>1.379207644147281</v>
+        <v>1.453963566449897</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.503349357221836</v>
       </c>
       <c r="E37" t="n">
-        <v>4.50339518830426</v>
+        <v>4.37233251137575</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.174739371168682</v>
+        <v>-4.206653102339764</v>
       </c>
       <c r="G37" t="n">
-        <v>1.260822564792131</v>
+        <v>1.32631156186175</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.365493964770278</v>
       </c>
       <c r="E38" t="n">
-        <v>4.224257354091971</v>
+        <v>4.124930282467453</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.047285933120898</v>
+        <v>-4.058560424478896</v>
       </c>
       <c r="G38" t="n">
-        <v>1.223157704190959</v>
+        <v>1.262192089901403</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.229266060508837</v>
       </c>
       <c r="E39" t="n">
-        <v>3.818089495778263</v>
+        <v>3.690644818019024</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.906105122922391</v>
+        <v>-3.934592851248156</v>
       </c>
       <c r="G39" t="n">
-        <v>1.142730955103253</v>
+        <v>1.195770122101694</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.097287602865952</v>
       </c>
       <c r="E40" t="n">
-        <v>3.491453377072532</v>
+        <v>3.347683901608843</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.822607162675459</v>
+        <v>-3.835730804940591</v>
       </c>
       <c r="G40" t="n">
-        <v>1.059965208973912</v>
+        <v>1.118120384482896</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9738597740401914</v>
       </c>
       <c r="E41" t="n">
-        <v>3.261866654969503</v>
+        <v>3.090056955919912</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.791904541395785</v>
+        <v>-3.789906465583377</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9594335976743936</v>
+        <v>0.9907428689358397</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8602267255209736</v>
       </c>
       <c r="E42" t="n">
-        <v>2.918460423891595</v>
+        <v>2.712863751970287</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.682172437051405</v>
+        <v>-3.618354465021832</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8985072508888645</v>
+        <v>0.9296778175816743</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7574071927665468</v>
       </c>
       <c r="E43" t="n">
-        <v>2.767030076094908</v>
+        <v>2.541264299845787</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.616471733008605</v>
+        <v>-3.546307661951897</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8579047735287845</v>
+        <v>0.8570287446742393</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.664287554641627</v>
       </c>
       <c r="E44" t="n">
-        <v>2.539811551995333</v>
+        <v>2.313314291652667</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.609719740612197</v>
+        <v>-3.53549235571849</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7579747020427204</v>
+        <v>0.7471192444868142</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5805444706708071</v>
       </c>
       <c r="E45" t="n">
-        <v>2.330534098836844</v>
+        <v>2.109250670226812</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.481516567869732</v>
+        <v>-3.386215578855894</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6759579605840151</v>
+        <v>0.6858527064961034</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5047654328396171</v>
       </c>
       <c r="E46" t="n">
-        <v>2.09628106303527</v>
+        <v>1.833743975616613</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.414802590451841</v>
+        <v>-3.330190613511546</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6971432583831004</v>
+        <v>0.704201130854553</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4362625312136628</v>
       </c>
       <c r="E47" t="n">
-        <v>1.775910010687629</v>
+        <v>1.480314514394617</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.373828530852625</v>
+        <v>-3.296846035211372</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5798050335091319</v>
+        <v>0.5589759874442284</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3750332646619292</v>
       </c>
       <c r="E48" t="n">
-        <v>1.597131502100132</v>
+        <v>1.33327015106302</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.263551098546291</v>
+        <v>-3.18024878474354</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4925715402216099</v>
+        <v>0.5055031861627882</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3195239798735708</v>
       </c>
       <c r="E49" t="n">
-        <v>1.401761007007547</v>
+        <v>1.089995478107722</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.205220717266397</v>
+        <v>-3.145500370203959</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4013156144436344</v>
+        <v>0.3871969494045472</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.269506213881828</v>
       </c>
       <c r="E50" t="n">
-        <v>1.279375395883308</v>
+        <v>0.9857845456191138</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.144358612596868</v>
+        <v>-3.051860185893529</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2958855417991172</v>
+        <v>0.2909213782900277</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2241692838952694</v>
       </c>
       <c r="E51" t="n">
-        <v>1.156423286099795</v>
+        <v>0.8867757644784131</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.060978186221254</v>
+        <v>-3.003331837471952</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2874858851321195</v>
+        <v>0.2899066448668461</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1837503559747476</v>
       </c>
       <c r="E52" t="n">
-        <v>1.00970305344438</v>
+        <v>0.744916031917633</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.928064898337517</v>
+        <v>-2.862621162758717</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2319047744074071</v>
+        <v>0.2224845441248642</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1471613288836679</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8385372356028806</v>
+        <v>0.5819381637699496</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.83777771446786</v>
+        <v>-2.789351569412645</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1528271097557011</v>
+        <v>0.165894540169334</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1147534908872813</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8581442214156936</v>
+        <v>0.6818083732842863</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.771485690948241</v>
+        <v>-2.712612901802575</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09426166073317138</v>
+        <v>0.09330240913744436</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.08566094507218215</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6547858032177482</v>
+        <v>0.4651255562087082</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.801828410373505</v>
+        <v>-2.740414407525613</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07569568920917637</v>
+        <v>0.07773975653644855</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.06070394563078646</v>
       </c>
       <c r="E56" t="n">
-        <v>0.519691933510239</v>
+        <v>0.3350352713087431</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.696808611242534</v>
+        <v>-2.626512405833598</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0679472139907239</v>
+        <v>0.08121029084853852</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.03983496352882838</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4445855996658046</v>
+        <v>0.2636009584129441</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.6861422299144</v>
+        <v>-2.624082885810326</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03051450103600668</v>
+        <v>0.02884566606809803</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.0234364124260682</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4259772867471732</v>
+        <v>0.2546552437599465</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.701544277225396</v>
+        <v>-2.637844569091186</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0342357116996123</v>
+        <v>-0.02875761126252286</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.01131883674098709</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3497598563055573</v>
+        <v>0.1384164350984322</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.670683970751905</v>
+        <v>-2.587262663029745</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.05275058154042551</v>
+        <v>-0.06040999382533255</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.003338818436734016</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3688397647575522</v>
+        <v>0.1958167657444168</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.667163794804723</v>
+        <v>-2.583864401098155</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1168934142702265</v>
+        <v>-0.09419112650468711</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.001006729973225399</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2145915241454118</v>
+        <v>0.0609156223849076</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.726307422871253</v>
+        <v>-2.672732418223449</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.155200696031398</v>
+        <v>-0.1556839719494888</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.002565030950787193</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1808366723316936</v>
+        <v>0.001022989647741867</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.686947446436536</v>
+        <v>-2.590207580029108</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1989422767869317</v>
+        <v>-0.1875320009564802</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.002680496577755338</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09059255988071782</v>
+        <v>-0.07934827761250927</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.829132039697543</v>
+        <v>-2.76987014773565</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2515697102237358</v>
+        <v>-0.2428619834095563</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.002904604078439753</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02302445432964505</v>
+        <v>-0.1374625717749482</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.827525986797544</v>
+        <v>-2.771537522655468</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2673557501826406</v>
+        <v>-0.2744413635678205</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.004217222087808628</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.03391450111961239</v>
+        <v>-0.1973902456662958</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.796929949028507</v>
+        <v>-2.744352157226793</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3037824900027217</v>
+        <v>-0.3213001469974443</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.007293463340150222</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.09480726679905058</v>
+        <v>-0.2698787132837309</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.906287551037568</v>
+        <v>-2.863362137164853</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3032320518724492</v>
+        <v>-0.3151197634286278</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.01229499722566355</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.148100482165309</v>
+        <v>-0.3334200062000774</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.909577039386386</v>
+        <v>-2.865887290338079</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3175828645579908</v>
+        <v>-0.3440520763980746</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.01895100162407191</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.160046595645124</v>
+        <v>-0.3126391417221739</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.000549715834725</v>
+        <v>-2.957276080492327</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3919182930104254</v>
+        <v>-0.416854454355055</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.02685440956903422</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1868603788346622</v>
+        <v>-0.3203759365558991</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.032103545151398</v>
+        <v>-3.007883537395359</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3512471933900727</v>
+        <v>-0.362019428204797</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.03568361143471428</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3041197611117217</v>
+        <v>-0.4443544601473204</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.144252759110277</v>
+        <v>-3.102981579724561</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4218784798358718</v>
+        <v>-0.430222654675415</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.04490226914635201</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3457194513178923</v>
+        <v>-0.5012481541057596</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.248281915611567</v>
+        <v>-3.226855709877482</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5030323328728501</v>
+        <v>-0.5320011470445696</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.0537586029719882</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3683764775926135</v>
+        <v>-0.5258441242452075</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.373045945075897</v>
+        <v>-3.366942944055899</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5142688629804834</v>
+        <v>-0.5161917463162101</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.06145536311820655</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3760738511278842</v>
+        <v>-0.5119284058907567</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.327406301802183</v>
+        <v>-3.340570095389815</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5629468663313795</v>
+        <v>-0.5856695947701915</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.06778329069990849</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.436972456999686</v>
+        <v>-0.588348783017009</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.397631694878709</v>
+        <v>-3.401721289581344</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6236980073459995</v>
+        <v>-0.6571856703590814</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.07294096114728525</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.3764724442567022</v>
+        <v>-0.4885559560514903</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.406247438663161</v>
+        <v>-3.402517015790889</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.654567804132082</v>
+        <v>-0.6806851443822569</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.07788339052284858</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4332069929732325</v>
+        <v>-0.5309367719862971</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.296229894917009</v>
+        <v>-3.284359703937922</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6717029285269865</v>
+        <v>-0.6924093305522537</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.0829982992396595</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4151038566940555</v>
+        <v>-0.4877324889282178</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.297555618583554</v>
+        <v>-3.308114686377006</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6180520013784555</v>
+        <v>-0.6125461600276388</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.0889823472756205</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2788492487542739</v>
+        <v>-0.3236537445199891</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.215503835970667</v>
+        <v>-3.227193711010528</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.659877999038717</v>
+        <v>-0.6845411313903468</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.09557383980110654</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2126462881682007</v>
+        <v>-0.2626938166283692</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.158948143145273</v>
+        <v>-3.179408527067222</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6112248165053664</v>
+        <v>-0.6248076438950901</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.102637676224374</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1057517872885022</v>
+        <v>-0.1315829581128589</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.081638596731658</v>
+        <v>-3.110091283903241</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6406024441425404</v>
+        <v>-0.6240396585992721</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1091900987254914</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.01979145593625254</v>
+        <v>-0.07523240204423766</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.964666113904462</v>
+        <v>-2.992503390805727</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5786350830681934</v>
+        <v>-0.5832999367186467</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1149435225231289</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1223953273968911</v>
+        <v>0.1009559812299878</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.806638538809004</v>
+        <v>-2.839015105224905</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5701142424096503</v>
+        <v>-0.5566248580977448</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1191343935959742</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4120571882484497</v>
+        <v>0.393773006006</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.721880557059618</v>
+        <v>-2.760678414979335</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5570468119960174</v>
+        <v>-0.5683402839791961</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1219027529653552</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6895218073485569</v>
+        <v>0.6837035157062858</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.562259339472933</v>
+        <v>-2.621620514705008</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5435267666742029</v>
+        <v>-0.5427032995509303</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1229117675986135</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8921575017415025</v>
+        <v>0.848668509305696</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.333342049419586</v>
+        <v>-2.382241250056254</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5473988142112927</v>
+        <v>-0.5518300601672006</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1216765218451178</v>
       </c>
       <c r="E86" t="n">
-        <v>1.23059810926223</v>
+        <v>1.198894625016238</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.239863930447247</v>
+        <v>-2.331295792020177</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4751176734227666</v>
+        <v>-0.4768624308914025</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1188398352015597</v>
       </c>
       <c r="E87" t="n">
-        <v>1.53396836163933</v>
+        <v>1.477333096192982</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.067497223050975</v>
+        <v>-2.155549803317497</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.452691334746409</v>
+        <v>-0.4744139302429486</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1154645577694809</v>
       </c>
       <c r="E88" t="n">
-        <v>1.710537817465283</v>
+        <v>1.612917542059036</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.802923368545501</v>
+        <v>-1.883292445733616</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4513656110798639</v>
+        <v>-0.4817740326692194</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1151276423648849</v>
       </c>
       <c r="E89" t="n">
-        <v>1.938238157434858</v>
+        <v>1.831028286167523</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.650332282516542</v>
+        <v>-1.723044137491886</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.3489519977911641</v>
+        <v>-0.3630166410508877</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1206719409163664</v>
       </c>
       <c r="E90" t="n">
-        <v>2.077656689587639</v>
+        <v>1.999749983504842</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.451448911717232</v>
+        <v>-1.497352823695401</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3204664595375354</v>
+        <v>-0.3421613141203478</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1357773018732299</v>
       </c>
       <c r="E91" t="n">
-        <v>2.157370935206981</v>
+        <v>2.079959185427002</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.252437056685922</v>
+        <v>-1.290211420893911</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.307904205763357</v>
+        <v>-0.327349126238079</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1618808198079274</v>
       </c>
       <c r="E92" t="n">
-        <v>2.091822076165635</v>
+        <v>2.029708710282197</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.096502460528782</v>
+        <v>-1.12553405676841</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2981218835542687</v>
+        <v>-0.3428694374444385</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2005118881410339</v>
       </c>
       <c r="E93" t="n">
-        <v>2.041497138568194</v>
+        <v>2.012207113816475</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8623443278531172</v>
+        <v>-0.8610989068315721</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2952879302098149</v>
+        <v>-0.3424328830652568</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2495897790620498</v>
       </c>
       <c r="E94" t="n">
-        <v>1.932533749543678</v>
+        <v>1.934395310859586</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8102498119694949</v>
+        <v>-0.8073793574227683</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2576537306185523</v>
+        <v>-0.3153592113155368</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3041577684361257</v>
       </c>
       <c r="E95" t="n">
-        <v>1.856322159294425</v>
+        <v>1.87043644418924</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6061759702070042</v>
+        <v>-0.5865587640575549</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2136946026974732</v>
+        <v>-0.2816671415697277</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3573635831391753</v>
       </c>
       <c r="E96" t="n">
-        <v>1.705002775152648</v>
+        <v>1.722025475844553</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4303555190516877</v>
+        <v>-0.3947507863067882</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1775029306200284</v>
+        <v>-0.2241514671245613</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4017075839623519</v>
       </c>
       <c r="E97" t="n">
-        <v>1.565708347087595</v>
+        <v>1.592256401524587</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2654226465102775</v>
+        <v>-0.2314736083004684</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1911237192601156</v>
+        <v>-0.2689034011590039</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.432167962764433</v>
       </c>
       <c r="E98" t="n">
-        <v>1.425660534207632</v>
+        <v>1.475645280599891</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1219349603281342</v>
+        <v>-0.06280301264633191</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.175381480743938</v>
+        <v>-0.2310063929113776</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4484140550147814</v>
       </c>
       <c r="E99" t="n">
-        <v>1.29788880567603</v>
+        <v>1.329659452134203</v>
       </c>
       <c r="F99" t="n">
-        <v>0.03282867726009697</v>
+        <v>0.06016515766618053</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2457368181005555</v>
+        <v>-0.3057564750216303</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4521843572537891</v>
       </c>
       <c r="E100" t="n">
-        <v>1.249331986316679</v>
+        <v>1.275364643777581</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1198723642958009</v>
+        <v>0.140467802666159</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2614002140198241</v>
+        <v>-0.3218389047429896</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4489962824010302</v>
       </c>
       <c r="E101" t="n">
-        <v>1.139349483724709</v>
+        <v>1.149349353099343</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1657061939656067</v>
+        <v>0.1780085591796034</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1926611498998425</v>
+        <v>-0.2186675264951082</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4411884321887366</v>
       </c>
       <c r="E102" t="n">
-        <v>1.106047246819172</v>
+        <v>1.090884647395086</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1573882999916999</v>
+        <v>0.1561136780083366</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2839243759182725</v>
+        <v>-0.3104972511728109</v>
       </c>
     </row>
   </sheetData>
